--- a/study_topics.xlsx
+++ b/study_topics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web Development\micathon\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web Development\micathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A28674-4962-4601-A3B5-5C163B716DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A3830-2E41-4C3C-9402-9EF71459F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B4FFD5F5-46DE-45F3-A0C2-66C78ED415F5}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
     <t>Linear Algebra</t>
   </si>
   <si>
@@ -53,18 +50,12 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Physics</t>
-  </si>
-  <si>
     <t>Thermodynamics</t>
   </si>
   <si>
     <t>Quantum Mechanics</t>
   </si>
   <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
     <t>Data Structures</t>
   </si>
   <si>
@@ -72,6 +63,15 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>MT101</t>
+  </si>
+  <si>
+    <t>PH101</t>
+  </si>
+  <si>
+    <t>CS101</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,63 +463,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
